--- a/ComplementaryData/manual_update.xlsx
+++ b/ComplementaryData/manual_update.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feiranl/Documents/GitHub/SecYeast/ComplementaryData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feiranl/Documents/GitHub/pcSecYeast/ComplementaryData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB7BD14-7ABC-B34F-A3F8-9FFC04207C38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F32C77F-509E-C048-94B8-5A271EC6037E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
+    <workbookView xWindow="12220" yWindow="3440" windowWidth="28800" windowHeight="15820" xr2:uid="{0732DB2B-E664-7544-B4C9-5536E1206D06}"/>
   </bookViews>
   <sheets>
     <sheet name="kcats" sheetId="3" r:id="rId1"/>
-    <sheet name="stoichiometry" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="stoichiometry" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="873">
   <si>
     <t>PMID: 11561293</t>
   </si>
@@ -2299,13 +2300,371 @@
   </si>
   <si>
     <t>r_4697_rvs_complex</t>
+  </si>
+  <si>
+    <t>PMID: 4346952 755.1
+754.9
+754
+753.8
+825.4</t>
+  </si>
+  <si>
+    <t>'r_2492_2'</t>
+  </si>
+  <si>
+    <t>'r_2500'</t>
+  </si>
+  <si>
+    <t>'r_2508'</t>
+  </si>
+  <si>
+    <t>'r_4699'</t>
+  </si>
+  <si>
+    <t>'r_2489_2'</t>
+  </si>
+  <si>
+    <t>'r_2497'</t>
+  </si>
+  <si>
+    <t>'r_0038'</t>
+  </si>
+  <si>
+    <t>'r_0066'</t>
+  </si>
+  <si>
+    <t>'r_0067'</t>
+  </si>
+  <si>
+    <t>'r_0068'</t>
+  </si>
+  <si>
+    <t>'r_0144'</t>
+  </si>
+  <si>
+    <t>'r_0203'</t>
+  </si>
+  <si>
+    <t>'r_0304'</t>
+  </si>
+  <si>
+    <t>'r_0309'</t>
+  </si>
+  <si>
+    <t>'r_0330_rvs'</t>
+  </si>
+  <si>
+    <t>'r_0344'</t>
+  </si>
+  <si>
+    <t>'r_0346'</t>
+  </si>
+  <si>
+    <t>'r_0347'</t>
+  </si>
+  <si>
+    <t>'r_0350'</t>
+  </si>
+  <si>
+    <t>'r_0436'</t>
+  </si>
+  <si>
+    <t>'r_0440'</t>
+  </si>
+  <si>
+    <t>'r_0524'</t>
+  </si>
+  <si>
+    <t>'r_0531'</t>
+  </si>
+  <si>
+    <t>'r_0557'</t>
+  </si>
+  <si>
+    <t>'r_0561_2'</t>
+  </si>
+  <si>
+    <t>'r_0561_3'</t>
+  </si>
+  <si>
+    <t>'r_0883_2'</t>
+  </si>
+  <si>
+    <t>'r_0885'</t>
+  </si>
+  <si>
+    <t>'r_0903_2'</t>
+  </si>
+  <si>
+    <t>'r_0903_3'</t>
+  </si>
+  <si>
+    <t>'r_0942'</t>
+  </si>
+  <si>
+    <t>'r_0965'</t>
+  </si>
+  <si>
+    <t>'r_0968'</t>
+  </si>
+  <si>
+    <t>'r_0993_2'</t>
+  </si>
+  <si>
+    <t>'r_1036'</t>
+  </si>
+  <si>
+    <t>'r_2157_2'</t>
+  </si>
+  <si>
+    <t>'r_2158_2'</t>
+  </si>
+  <si>
+    <t>'r_2159_2'</t>
+  </si>
+  <si>
+    <t>'r_2160'</t>
+  </si>
+  <si>
+    <t>'r_2178'</t>
+  </si>
+  <si>
+    <t>'r_2179'</t>
+  </si>
+  <si>
+    <t>'r_2180'</t>
+  </si>
+  <si>
+    <t>'r_2181'</t>
+  </si>
+  <si>
+    <t>'r_2196_1_rvs'</t>
+  </si>
+  <si>
+    <t>'r_2196_2_rvs'</t>
+  </si>
+  <si>
+    <t>'r_2199_1_fwd'</t>
+  </si>
+  <si>
+    <t>'r_2199_2_fwd'</t>
+  </si>
+  <si>
+    <t>'r_2202_2_rvs'</t>
+  </si>
+  <si>
+    <t>'r_2203_2_rvs'</t>
+  </si>
+  <si>
+    <t>'r_2434_fwd'</t>
+  </si>
+  <si>
+    <t>'r_2447'</t>
+  </si>
+  <si>
+    <t>'r_2450'</t>
+  </si>
+  <si>
+    <t>'r_2452'</t>
+  </si>
+  <si>
+    <t>'r_2455'</t>
+  </si>
+  <si>
+    <t>'r_2458'</t>
+  </si>
+  <si>
+    <t>'r_2488_2'</t>
+  </si>
+  <si>
+    <t>'r_2493_2'</t>
+  </si>
+  <si>
+    <t>'r_2494_2'</t>
+  </si>
+  <si>
+    <t>'r_2496'</t>
+  </si>
+  <si>
+    <t>'r_2501'</t>
+  </si>
+  <si>
+    <t>'r_2502'</t>
+  </si>
+  <si>
+    <t>'r_2504'</t>
+  </si>
+  <si>
+    <t>'r_2505'</t>
+  </si>
+  <si>
+    <t>'r_2509'</t>
+  </si>
+  <si>
+    <t>'r_2510'</t>
+  </si>
+  <si>
+    <t>'r_3308'</t>
+  </si>
+  <si>
+    <t>'r_4591_2_fwd'</t>
+  </si>
+  <si>
+    <t>'YDR487C'</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>'YNR033W'</t>
+  </si>
+  <si>
+    <t>'YMR289W'</t>
+  </si>
+  <si>
+    <t>'YGR019W'</t>
+  </si>
+  <si>
+    <t>'YER043C'</t>
+  </si>
+  <si>
+    <t>'YER090W'</t>
+  </si>
+  <si>
+    <t>'YKL211C'</t>
+  </si>
+  <si>
+    <t>'YDR044W'</t>
+  </si>
+  <si>
+    <t>'YGR155W'</t>
+  </si>
+  <si>
+    <t>'YDR454C'</t>
+  </si>
+  <si>
+    <t>'YOR236W'</t>
+  </si>
+  <si>
+    <t>'YMR113W'</t>
+  </si>
+  <si>
+    <t>'YNL256W'</t>
+  </si>
+  <si>
+    <t>'YOR176W'</t>
+  </si>
+  <si>
+    <t>'YDL045C'</t>
+  </si>
+  <si>
+    <t>'YGR267C'</t>
+  </si>
+  <si>
+    <t>'YPL172C'</t>
+  </si>
+  <si>
+    <t>'YDL205C'</t>
+  </si>
+  <si>
+    <t>'YPL258C'</t>
+  </si>
+  <si>
+    <t>'YPR121W'</t>
+  </si>
+  <si>
+    <t>'YLR043C'</t>
+  </si>
+  <si>
+    <t>'YPR167C'</t>
+  </si>
+  <si>
+    <t>'YGR007W'</t>
+  </si>
+  <si>
+    <t>'YER014W'</t>
+  </si>
+  <si>
+    <t>'YDR236C'</t>
+  </si>
+  <si>
+    <t>'YBR256C'</t>
+  </si>
+  <si>
+    <t>'YDR062W'</t>
+  </si>
+  <si>
+    <t>'YMR296C'</t>
+  </si>
+  <si>
+    <t>'YPL214C'</t>
+  </si>
+  <si>
+    <t>'YLR372W'</t>
+  </si>
+  <si>
+    <t>'YDL015C'</t>
+  </si>
+  <si>
+    <t>'YMR246W'</t>
+  </si>
+  <si>
+    <t>'YOR317W'</t>
+  </si>
+  <si>
+    <t>'YBR029C'</t>
+  </si>
+  <si>
+    <t>'YER026C'</t>
+  </si>
+  <si>
+    <t>'YPR113W'</t>
+  </si>
+  <si>
+    <t>'YJR073C'</t>
+  </si>
+  <si>
+    <t>'YKL094W'</t>
+  </si>
+  <si>
+    <t>'YLR130C'</t>
+  </si>
+  <si>
+    <t>'YCL043C'</t>
+  </si>
+  <si>
+    <t>'YML130C'</t>
+  </si>
+  <si>
+    <t>'YHR079C'</t>
+  </si>
+  <si>
+    <t>r_4699_complex</t>
+  </si>
+  <si>
+    <t>max SA 0.00373U/mg from PMID: 10509018</t>
+  </si>
+  <si>
+    <t>max SA 0.00373U/mg from PMID: 10509019</t>
+  </si>
+  <si>
+    <t>max SA 0.00349U/mg from PMID: 10509020</t>
+  </si>
+  <si>
+    <t>r_0992_1_complex</t>
+  </si>
+  <si>
+    <t>r_0992_2_complex</t>
+  </si>
+  <si>
+    <t>r_0312_complex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2322,6 +2681,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2353,7 +2719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2368,6 +2734,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2682,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A95A-9A45-104E-81A0-44F5861A24E6}">
-  <dimension ref="A1:D509"/>
+  <dimension ref="A1:F513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A510" sqref="A510"/>
+    <sheetView tabSelected="1" topLeftCell="A496" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B521" sqref="B521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3384,11 +3752,11 @@
       <c r="A50" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B50" s="3">
-        <v>755.1</v>
+      <c r="B50" s="10">
+        <v>694.52040111007318</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>17</v>
+        <v>755</v>
       </c>
       <c r="D50" s="3">
         <v>5</v>
@@ -3398,8 +3766,8 @@
       <c r="A51" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B51" s="3">
-        <v>754.9</v>
+      <c r="B51" s="10">
+        <v>694.35680023562895</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>17</v>
@@ -3412,8 +3780,8 @@
       <c r="A52" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B52" s="3">
-        <v>754</v>
+      <c r="B52" s="10">
+        <v>693.5</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>17</v>
@@ -3426,8 +3794,8 @@
       <c r="A53" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="3">
-        <v>753.8</v>
+      <c r="B53" s="10">
+        <v>693.33639912555566</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>17</v>
@@ -3440,8 +3808,8 @@
       <c r="A54" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="3">
-        <v>825.4</v>
+      <c r="B54" s="10">
+        <v>759.1360475301426</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>17</v>
@@ -9642,7 +10010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>718</v>
       </c>
@@ -9656,7 +10024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>720</v>
       </c>
@@ -9670,7 +10038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="9" t="s">
         <v>721</v>
       </c>
@@ -9681,7 +10049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="9" t="s">
         <v>722</v>
       </c>
@@ -9692,7 +10060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" s="9" t="s">
         <v>723</v>
       </c>
@@ -9703,7 +10071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" s="9" t="s">
         <v>724</v>
       </c>
@@ -9714,7 +10082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" s="9" t="s">
         <v>725</v>
       </c>
@@ -9725,7 +10093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="9" t="s">
         <v>726</v>
       </c>
@@ -9736,7 +10104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" s="9" t="s">
         <v>727</v>
       </c>
@@ -9747,7 +10115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>728</v>
       </c>
@@ -9758,7 +10126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>729</v>
       </c>
@@ -9772,7 +10140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>753</v>
       </c>
@@ -9786,7 +10154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>754</v>
       </c>
@@ -9799,6 +10167,68 @@
       <c r="D509">
         <v>5</v>
       </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>866</v>
+      </c>
+      <c r="B510" s="12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C510" t="s">
+        <v>752</v>
+      </c>
+      <c r="D510">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A511" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B511" s="13">
+        <v>9.9038389999999994E-3</v>
+      </c>
+      <c r="C511" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="D511">
+        <v>5</v>
+      </c>
+      <c r="E511" s="13"/>
+      <c r="F511" s="13"/>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A512" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="B512" s="13">
+        <v>8.1878579999999992E-3</v>
+      </c>
+      <c r="C512" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="D512">
+        <v>5</v>
+      </c>
+      <c r="E512" s="13"/>
+      <c r="F512" s="13"/>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A513" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="B513" s="13">
+        <v>2.8310309999999999E-3</v>
+      </c>
+      <c r="C513" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="D513">
+        <v>5</v>
+      </c>
+      <c r="E513" s="13"/>
+      <c r="F513" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9808,6 +10238,2839 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB790FE-8501-414C-8CB3-0E6301851896}">
+  <dimension ref="A1:M67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0.55036282592111196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C1">
+        <v>1.9999999422E-4</v>
+      </c>
+      <c r="D1">
+        <v>3.9999998843999999E-4</v>
+      </c>
+      <c r="E1">
+        <v>5.9999998265999996E-4</v>
+      </c>
+      <c r="F1">
+        <v>6.3999998150399996E-4</v>
+      </c>
+      <c r="G1">
+        <v>6.5999998092600002E-4</v>
+      </c>
+      <c r="H1">
+        <v>6.9999997977000003E-4</v>
+      </c>
+      <c r="I1">
+        <v>7.1999997919199997E-4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>823</v>
+      </c>
+      <c r="K1" t="s">
+        <v>824</v>
+      </c>
+      <c r="L1" t="s">
+        <v>824</v>
+      </c>
+      <c r="M1">
+        <f>I1/A1</f>
+        <v>1.3082278549372873E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.37029636793833098</v>
+      </c>
+      <c r="B2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2">
+        <v>1.4029532758330399E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.80601272997625E-2</v>
+      </c>
+      <c r="E2">
+        <v>4.2069204695713402E-2</v>
+      </c>
+      <c r="F2">
+        <v>4.4829622056687397E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.5927322900165803E-2</v>
+      </c>
+      <c r="H2">
+        <v>4.8710798852292202E-2</v>
+      </c>
+      <c r="I2">
+        <v>5.0102536915557501E-2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>828</v>
+      </c>
+      <c r="K2" t="s">
+        <v>824</v>
+      </c>
+      <c r="L2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M2">
+        <f>I2/A2</f>
+        <v>0.13530388427655751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.06</v>
+      </c>
+      <c r="B3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C3">
+        <v>2.0529054226443798E-3</v>
+      </c>
+      <c r="D3">
+        <v>3.97947680172972E-3</v>
+      </c>
+      <c r="E3">
+        <v>3.77160082743423E-3</v>
+      </c>
+      <c r="F3">
+        <v>5.2595307660390301E-3</v>
+      </c>
+      <c r="G3">
+        <v>7.1746989750293803E-3</v>
+      </c>
+      <c r="H3">
+        <v>7.6095107267538402E-3</v>
+      </c>
+      <c r="I3">
+        <v>7.8269157249217895E-3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>860</v>
+      </c>
+      <c r="K3" t="s">
+        <v>824</v>
+      </c>
+      <c r="L3" t="s">
+        <v>824</v>
+      </c>
+      <c r="M3">
+        <f>I3/A3</f>
+        <v>0.13044859541536316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.06</v>
+      </c>
+      <c r="B4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C4">
+        <v>2.0529054226443798E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.97947680172972E-3</v>
+      </c>
+      <c r="E4">
+        <v>3.77160082743423E-3</v>
+      </c>
+      <c r="F4">
+        <v>5.2595307660390301E-3</v>
+      </c>
+      <c r="G4">
+        <v>7.1746989750293803E-3</v>
+      </c>
+      <c r="H4">
+        <v>7.6095107267538402E-3</v>
+      </c>
+      <c r="I4">
+        <v>7.8269157249217895E-3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>860</v>
+      </c>
+      <c r="K4" t="s">
+        <v>824</v>
+      </c>
+      <c r="L4" t="s">
+        <v>824</v>
+      </c>
+      <c r="M4">
+        <f>I4/A4</f>
+        <v>0.13044859541536316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.06</v>
+      </c>
+      <c r="B5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C5">
+        <v>2.0529054226443798E-3</v>
+      </c>
+      <c r="D5">
+        <v>3.97947680172972E-3</v>
+      </c>
+      <c r="E5">
+        <v>3.77160082743423E-3</v>
+      </c>
+      <c r="F5">
+        <v>5.2595307660390301E-3</v>
+      </c>
+      <c r="G5">
+        <v>7.1746989750293803E-3</v>
+      </c>
+      <c r="H5">
+        <v>7.6095107267538402E-3</v>
+      </c>
+      <c r="I5">
+        <v>7.8269157249217895E-3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K5" t="s">
+        <v>824</v>
+      </c>
+      <c r="L5" t="s">
+        <v>824</v>
+      </c>
+      <c r="M5">
+        <f>I5/A5</f>
+        <v>0.13044859541536316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5.5634419022044099E-6</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1.5977063103603099E-5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3.2134026130550802E-5</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3.6293186407400203E-5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3.5855093822141802E-5</v>
+      </c>
+      <c r="H6" s="12">
+        <v>3.02142649095578E-5</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2.54375522124517E-5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>863</v>
+      </c>
+      <c r="K6" t="s">
+        <v>864</v>
+      </c>
+      <c r="L6" t="s">
+        <v>865</v>
+      </c>
+      <c r="M6">
+        <f>I6/A6</f>
+        <v>0.11562523732932591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.06</v>
+      </c>
+      <c r="B7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>6.7780762061840204E-4</v>
+      </c>
+      <c r="F7">
+        <v>1.30976658642298E-3</v>
+      </c>
+      <c r="G7">
+        <v>2.6289276285264402E-3</v>
+      </c>
+      <c r="H7">
+        <v>2.7882565757098598E-3</v>
+      </c>
+      <c r="I7">
+        <v>2.86792104930157E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K7" t="s">
+        <v>824</v>
+      </c>
+      <c r="L7" t="s">
+        <v>824</v>
+      </c>
+      <c r="M7">
+        <f>I7/A7</f>
+        <v>4.7798684155026167E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>6.7780762061840204E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.30976658642298E-3</v>
+      </c>
+      <c r="G8">
+        <v>2.6289276285264402E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.7882565757098598E-3</v>
+      </c>
+      <c r="I8">
+        <v>2.86792104930157E-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>860</v>
+      </c>
+      <c r="K8" t="s">
+        <v>824</v>
+      </c>
+      <c r="L8" t="s">
+        <v>824</v>
+      </c>
+      <c r="M8">
+        <f>I8/A8</f>
+        <v>4.7798684155026167E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.06</v>
+      </c>
+      <c r="B9" t="s">
+        <v>820</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>6.7780762061840204E-4</v>
+      </c>
+      <c r="F9">
+        <v>1.30976658642298E-3</v>
+      </c>
+      <c r="G9">
+        <v>2.6289276285264402E-3</v>
+      </c>
+      <c r="H9">
+        <v>2.7882565757098598E-3</v>
+      </c>
+      <c r="I9">
+        <v>2.86792104930157E-3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>860</v>
+      </c>
+      <c r="K9" t="s">
+        <v>824</v>
+      </c>
+      <c r="L9" t="s">
+        <v>824</v>
+      </c>
+      <c r="M9">
+        <f>I9/A9</f>
+        <v>4.7798684155026167E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C10">
+        <v>3.2164570537635399E-3</v>
+      </c>
+      <c r="D10">
+        <v>6.4277071838773903E-3</v>
+      </c>
+      <c r="E10">
+        <v>9.5682016241430308E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.0271190486655601E-2</v>
+      </c>
+      <c r="G10">
+        <v>7.4172695221337501E-3</v>
+      </c>
+      <c r="H10">
+        <v>7.8668370295746498E-3</v>
+      </c>
+      <c r="I10">
+        <v>8.0916224932484401E-3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>858</v>
+      </c>
+      <c r="K10" t="s">
+        <v>824</v>
+      </c>
+      <c r="L10" t="s">
+        <v>824</v>
+      </c>
+      <c r="M10">
+        <f>I10/A10</f>
+        <v>4.421651635654885E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>782</v>
+      </c>
+      <c r="C11">
+        <v>7.9308716243401203E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.7223566802899399E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.7957186596399401E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.0187155518891898E-2</v>
+      </c>
+      <c r="G11">
+        <v>3.1204539476936799E-2</v>
+      </c>
+      <c r="H11">
+        <v>3.2865236810317701E-2</v>
+      </c>
+      <c r="I11">
+        <v>3.36047083321847E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>844</v>
+      </c>
+      <c r="K11" t="s">
+        <v>845</v>
+      </c>
+      <c r="L11" t="s">
+        <v>824</v>
+      </c>
+      <c r="M11">
+        <f>I11/A11</f>
+        <v>4.3985220330084687E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>807</v>
+      </c>
+      <c r="C12">
+        <v>2.0529054226443798E-3</v>
+      </c>
+      <c r="D12">
+        <v>3.97947680172972E-3</v>
+      </c>
+      <c r="E12">
+        <v>3.77160082743423E-3</v>
+      </c>
+      <c r="F12">
+        <v>5.2595307660390301E-3</v>
+      </c>
+      <c r="G12">
+        <v>7.1746989750293803E-3</v>
+      </c>
+      <c r="H12">
+        <v>7.6095107267538402E-3</v>
+      </c>
+      <c r="I12">
+        <v>7.8269157249217895E-3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>858</v>
+      </c>
+      <c r="K12" t="s">
+        <v>824</v>
+      </c>
+      <c r="L12" t="s">
+        <v>824</v>
+      </c>
+      <c r="M12">
+        <f>I12/A12</f>
+        <v>4.2770031283725626E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.06</v>
+      </c>
+      <c r="B13" t="s">
+        <v>760</v>
+      </c>
+      <c r="C13">
+        <v>1.3934401034776901E-3</v>
+      </c>
+      <c r="D13">
+        <v>2.9154034682829801E-3</v>
+      </c>
+      <c r="E13">
+        <v>4.1766087191091403E-3</v>
+      </c>
+      <c r="F13">
+        <v>4.4373029888374596E-3</v>
+      </c>
+      <c r="G13">
+        <v>1.4041736147569299E-3</v>
+      </c>
+      <c r="H13">
+        <v>1.4892942967141699E-3</v>
+      </c>
+      <c r="I13">
+        <v>1.5318555515394701E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>860</v>
+      </c>
+      <c r="K13" t="s">
+        <v>824</v>
+      </c>
+      <c r="L13" t="s">
+        <v>824</v>
+      </c>
+      <c r="M13">
+        <f>I13/A13</f>
+        <v>2.5530925858991169E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.06</v>
+      </c>
+      <c r="B14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C14">
+        <v>1.3934401034776901E-3</v>
+      </c>
+      <c r="D14">
+        <v>2.9154034682829801E-3</v>
+      </c>
+      <c r="E14">
+        <v>4.1766087191091403E-3</v>
+      </c>
+      <c r="F14">
+        <v>4.4373029888374596E-3</v>
+      </c>
+      <c r="G14">
+        <v>1.4041736147569299E-3</v>
+      </c>
+      <c r="H14">
+        <v>1.4892942967141699E-3</v>
+      </c>
+      <c r="I14">
+        <v>1.5318555515394701E-3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>860</v>
+      </c>
+      <c r="K14" t="s">
+        <v>824</v>
+      </c>
+      <c r="L14" t="s">
+        <v>824</v>
+      </c>
+      <c r="M14">
+        <f>I14/A14</f>
+        <v>2.5530925858991169E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.06</v>
+      </c>
+      <c r="B15" t="s">
+        <v>818</v>
+      </c>
+      <c r="C15">
+        <v>1.3934401034776901E-3</v>
+      </c>
+      <c r="D15">
+        <v>2.9154034682829801E-3</v>
+      </c>
+      <c r="E15">
+        <v>4.1766087191091403E-3</v>
+      </c>
+      <c r="F15">
+        <v>4.4373029888374596E-3</v>
+      </c>
+      <c r="G15">
+        <v>1.4041736147569299E-3</v>
+      </c>
+      <c r="H15">
+        <v>1.4892942967141699E-3</v>
+      </c>
+      <c r="I15">
+        <v>1.5318555515394701E-3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>860</v>
+      </c>
+      <c r="K15" t="s">
+        <v>824</v>
+      </c>
+      <c r="L15" t="s">
+        <v>824</v>
+      </c>
+      <c r="M15">
+        <f>I15/A15</f>
+        <v>2.5530925858991169E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="B16" t="s">
+        <v>767</v>
+      </c>
+      <c r="C16">
+        <v>3.6495267204391798E-3</v>
+      </c>
+      <c r="D16">
+        <v>7.33807098013431E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.10612596816008E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.17816128396213E-2</v>
+      </c>
+      <c r="G16">
+        <v>1.21463492641393E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.29272125344398E-2</v>
+      </c>
+      <c r="I16">
+        <v>1.33565562087302E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>829</v>
+      </c>
+      <c r="K16" t="s">
+        <v>830</v>
+      </c>
+      <c r="L16" t="s">
+        <v>824</v>
+      </c>
+      <c r="M16">
+        <f>I16/A16</f>
+        <v>2.3228793406487307E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.18783403983685101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>769</v>
+      </c>
+      <c r="C17">
+        <v>1.48610086890406E-3</v>
+      </c>
+      <c r="D17">
+        <v>3.5423909275419199E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>832</v>
+      </c>
+      <c r="K17" t="s">
+        <v>824</v>
+      </c>
+      <c r="L17" t="s">
+        <v>824</v>
+      </c>
+      <c r="M17">
+        <f>D17/A17</f>
+        <v>1.8859153168503277E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.183</v>
+      </c>
+      <c r="B18" t="s">
+        <v>809</v>
+      </c>
+      <c r="C18" s="12">
+        <v>5.6440261579535899E-5</v>
+      </c>
+      <c r="D18">
+        <v>1.92874178548016E-4</v>
+      </c>
+      <c r="E18">
+        <v>2.56884508014884E-3</v>
+      </c>
+      <c r="F18">
+        <v>2.7401014188254301E-3</v>
+      </c>
+      <c r="G18">
+        <v>2.8257295881637199E-3</v>
+      </c>
+      <c r="H18">
+        <v>2.99698592684031E-3</v>
+      </c>
+      <c r="I18">
+        <v>3.0826140961785998E-3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>859</v>
+      </c>
+      <c r="K18" t="s">
+        <v>824</v>
+      </c>
+      <c r="L18" t="s">
+        <v>824</v>
+      </c>
+      <c r="M18">
+        <f>I18/A18</f>
+        <v>1.6844885771467758E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.183</v>
+      </c>
+      <c r="B19" t="s">
+        <v>808</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1.2633404355904201E-4</v>
+      </c>
+      <c r="E19">
+        <v>2.3871154404989099E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.30976658642298E-3</v>
+      </c>
+      <c r="G19">
+        <v>2.6289276285264402E-3</v>
+      </c>
+      <c r="H19">
+        <v>2.7882565757098598E-3</v>
+      </c>
+      <c r="I19">
+        <v>2.86792104930157E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>858</v>
+      </c>
+      <c r="K19" t="s">
+        <v>824</v>
+      </c>
+      <c r="L19" t="s">
+        <v>824</v>
+      </c>
+      <c r="M19">
+        <f>I19/A19</f>
+        <v>1.5671699722959398E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.43018894957169601</v>
+      </c>
+      <c r="B20" t="s">
+        <v>771</v>
+      </c>
+      <c r="C20">
+        <v>3.6633999407060001E-4</v>
+      </c>
+      <c r="D20">
+        <v>7.3267998814120002E-4</v>
+      </c>
+      <c r="E20">
+        <v>1.0990199822118001E-3</v>
+      </c>
+      <c r="F20">
+        <v>1.1722879810259199E-3</v>
+      </c>
+      <c r="G20">
+        <v>1.20892198043298E-3</v>
+      </c>
+      <c r="H20">
+        <v>1.2821899792471001E-3</v>
+      </c>
+      <c r="I20">
+        <v>1.3188239786541601E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>834</v>
+      </c>
+      <c r="K20" t="s">
+        <v>824</v>
+      </c>
+      <c r="L20" t="s">
+        <v>824</v>
+      </c>
+      <c r="M20">
+        <f>I20/A20</f>
+        <v>3.0656853923542327E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.36637830421244E-2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>777</v>
+      </c>
+      <c r="C21" s="12">
+        <v>6.3400002545999997E-6</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1.2680000509199999E-5</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1.9020000763800001E-5</v>
+      </c>
+      <c r="F21" s="12">
+        <v>2.0288000814719999E-5</v>
+      </c>
+      <c r="G21" s="12">
+        <v>2.0922000840180001E-5</v>
+      </c>
+      <c r="H21" s="12">
+        <v>2.2190000891100002E-5</v>
+      </c>
+      <c r="I21" s="12">
+        <v>2.282400091656E-5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>839</v>
+      </c>
+      <c r="K21" t="s">
+        <v>824</v>
+      </c>
+      <c r="L21" t="s">
+        <v>824</v>
+      </c>
+      <c r="M21">
+        <f>I21/A21</f>
+        <v>1.6704012970782211E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.38751751058315598</v>
+      </c>
+      <c r="B22" t="s">
+        <v>770</v>
+      </c>
+      <c r="C22">
+        <v>2.4000001139940001E-4</v>
+      </c>
+      <c r="D22">
+        <v>4.8000002279880002E-4</v>
+      </c>
+      <c r="E22">
+        <v>7.2000003419819998E-4</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>833</v>
+      </c>
+      <c r="K22" t="s">
+        <v>824</v>
+      </c>
+      <c r="L22" t="s">
+        <v>824</v>
+      </c>
+      <c r="M22">
+        <f>D22/A22</f>
+        <v>1.2386537632234262E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.27807949618279998</v>
+      </c>
+      <c r="B23" t="s">
+        <v>822</v>
+      </c>
+      <c r="C23" s="12">
+        <v>7.4799999128999993E-5</v>
+      </c>
+      <c r="D23">
+        <v>1.4959999825799999E-4</v>
+      </c>
+      <c r="E23">
+        <v>2.2439999738699999E-4</v>
+      </c>
+      <c r="F23">
+        <v>2.3935999721279999E-4</v>
+      </c>
+      <c r="G23">
+        <v>2.4683999712569999E-4</v>
+      </c>
+      <c r="H23">
+        <v>2.6179999695149998E-4</v>
+      </c>
+      <c r="I23">
+        <v>2.6927999686439998E-4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>862</v>
+      </c>
+      <c r="K23" t="s">
+        <v>824</v>
+      </c>
+      <c r="L23" t="s">
+        <v>824</v>
+      </c>
+      <c r="M23">
+        <f>I23/A23</f>
+        <v>9.6835617354321048E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.60030013085014899</v>
+      </c>
+      <c r="B24" t="s">
+        <v>788</v>
+      </c>
+      <c r="C24" s="12">
+        <v>9.9999997109999998E-5</v>
+      </c>
+      <c r="D24">
+        <v>1.9999999422E-4</v>
+      </c>
+      <c r="E24">
+        <v>2.9999999132999998E-4</v>
+      </c>
+      <c r="F24">
+        <v>3.1999999075199998E-4</v>
+      </c>
+      <c r="G24">
+        <v>3.2999999046300001E-4</v>
+      </c>
+      <c r="H24">
+        <v>3.4999998988500001E-4</v>
+      </c>
+      <c r="I24">
+        <v>3.5999998959599999E-4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>849</v>
+      </c>
+      <c r="K24" t="s">
+        <v>824</v>
+      </c>
+      <c r="L24" t="s">
+        <v>824</v>
+      </c>
+      <c r="M24">
+        <f>I24/A24</f>
+        <v>5.9970000187433846E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.3985271323107907E-2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>773</v>
+      </c>
+      <c r="C25" s="12">
+        <v>6.3400002545999997E-6</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1.2680000509199999E-5</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1.9020000763800001E-5</v>
+      </c>
+      <c r="F25" s="12">
+        <v>2.0288000814719999E-5</v>
+      </c>
+      <c r="G25" s="12">
+        <v>2.0922000840180001E-5</v>
+      </c>
+      <c r="H25" s="12">
+        <v>2.2190000891100002E-5</v>
+      </c>
+      <c r="I25" s="12">
+        <v>2.282400091656E-5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>836</v>
+      </c>
+      <c r="K25" t="s">
+        <v>824</v>
+      </c>
+      <c r="L25" t="s">
+        <v>824</v>
+      </c>
+      <c r="M25">
+        <f>I25/A25</f>
+        <v>3.0849384625330627E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>774</v>
+      </c>
+      <c r="C26" s="12">
+        <v>6.3400002545999997E-6</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1.2680000509199999E-5</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1.9020000763800001E-5</v>
+      </c>
+      <c r="F26" s="12">
+        <v>2.0288000814719999E-5</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2.0922000840180001E-5</v>
+      </c>
+      <c r="H26" s="12">
+        <v>2.2190000891100002E-5</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2.282400091656E-5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>836</v>
+      </c>
+      <c r="K26" t="s">
+        <v>824</v>
+      </c>
+      <c r="L26" t="s">
+        <v>824</v>
+      </c>
+      <c r="M26">
+        <f>I26/A26</f>
+        <v>2.0939450382165137E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.15588408822232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>764</v>
+      </c>
+      <c r="C27" s="12">
+        <v>6.3400002545999997E-6</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1.2680000509199999E-5</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1.9020000763800001E-5</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2.0288000814719999E-5</v>
+      </c>
+      <c r="G27" s="12">
+        <v>2.0922000840180001E-5</v>
+      </c>
+      <c r="H27" s="12">
+        <v>2.2190000891100002E-5</v>
+      </c>
+      <c r="I27" s="12">
+        <v>2.282400091656E-5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>826</v>
+      </c>
+      <c r="K27" t="s">
+        <v>824</v>
+      </c>
+      <c r="L27" t="s">
+        <v>824</v>
+      </c>
+      <c r="M27">
+        <f>I27/A27</f>
+        <v>1.4641648918014446E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.187239156100378</v>
+      </c>
+      <c r="B28" t="s">
+        <v>763</v>
+      </c>
+      <c r="C28" s="12">
+        <v>6.3400002545999997E-6</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1.2680000509199999E-5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1.9020000763800001E-5</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2.0288000814719999E-5</v>
+      </c>
+      <c r="G28" s="12">
+        <v>2.0922000840180001E-5</v>
+      </c>
+      <c r="H28" s="12">
+        <v>2.2190000891100002E-5</v>
+      </c>
+      <c r="I28" s="12">
+        <v>2.282400091656E-5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>825</v>
+      </c>
+      <c r="K28" t="s">
+        <v>824</v>
+      </c>
+      <c r="L28" t="s">
+        <v>824</v>
+      </c>
+      <c r="M28">
+        <f>I28/A28</f>
+        <v>1.2189758484237221E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.38092410696992601</v>
+      </c>
+      <c r="B29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C29" s="12">
+        <v>6.3400002545999997E-6</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1.2680000509199999E-5</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1.9020000763800001E-5</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2.0288000814719999E-5</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2.0922000840180001E-5</v>
+      </c>
+      <c r="H29" s="12">
+        <v>2.2190000891100002E-5</v>
+      </c>
+      <c r="I29" s="12">
+        <v>2.282400091656E-5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>835</v>
+      </c>
+      <c r="K29" t="s">
+        <v>824</v>
+      </c>
+      <c r="L29" t="s">
+        <v>824</v>
+      </c>
+      <c r="M29">
+        <f>I29/A29</f>
+        <v>5.9917449431369164E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>776</v>
+      </c>
+      <c r="C30" s="12">
+        <v>9.9999997469999996E-7</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1.9999999493999999E-6</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2.9999999241000001E-6</v>
+      </c>
+      <c r="F30" s="12">
+        <v>3.19999991904E-6</v>
+      </c>
+      <c r="G30" s="12">
+        <v>3.2999999165100001E-6</v>
+      </c>
+      <c r="H30" s="12">
+        <v>3.49999991145E-6</v>
+      </c>
+      <c r="I30" s="12">
+        <v>3.5999999089200001E-6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>838</v>
+      </c>
+      <c r="K30" t="s">
+        <v>824</v>
+      </c>
+      <c r="L30" t="s">
+        <v>824</v>
+      </c>
+      <c r="M30">
+        <f>I30/A30</f>
+        <v>4.1379309297931035E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="B31" t="s">
+        <v>789</v>
+      </c>
+      <c r="C31" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F31" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G31" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H31" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I31" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J31" t="s">
+        <v>850</v>
+      </c>
+      <c r="K31" t="s">
+        <v>851</v>
+      </c>
+      <c r="L31" t="s">
+        <v>824</v>
+      </c>
+      <c r="M31">
+        <f>I31/A31</f>
+        <v>2.5246248323246814E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>795</v>
+      </c>
+      <c r="C32" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F32" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G32" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H32" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I32" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>854</v>
+      </c>
+      <c r="K32" t="s">
+        <v>824</v>
+      </c>
+      <c r="L32" t="s">
+        <v>824</v>
+      </c>
+      <c r="M32">
+        <f>I32/A32</f>
+        <v>2.0973806299312738E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>796</v>
+      </c>
+      <c r="C33" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F33" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G33" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H33" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I33" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>854</v>
+      </c>
+      <c r="K33" t="s">
+        <v>824</v>
+      </c>
+      <c r="L33" t="s">
+        <v>824</v>
+      </c>
+      <c r="M33">
+        <f>I33/A33</f>
+        <v>2.0973806299312738E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>797</v>
+      </c>
+      <c r="C34" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F34" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G34" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H34" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I34" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>854</v>
+      </c>
+      <c r="K34" t="s">
+        <v>824</v>
+      </c>
+      <c r="L34" t="s">
+        <v>824</v>
+      </c>
+      <c r="M34">
+        <f>I34/A34</f>
+        <v>2.0973806299312738E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>798</v>
+      </c>
+      <c r="C35" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E35" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F35" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G35" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H35" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I35" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J35" t="s">
+        <v>854</v>
+      </c>
+      <c r="K35" t="s">
+        <v>824</v>
+      </c>
+      <c r="L35" t="s">
+        <v>824</v>
+      </c>
+      <c r="M35">
+        <f>I35/A35</f>
+        <v>2.0973806299312738E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>810</v>
+      </c>
+      <c r="C36" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E36" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F36" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G36" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H36" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I36" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>859</v>
+      </c>
+      <c r="K36" t="s">
+        <v>824</v>
+      </c>
+      <c r="L36" t="s">
+        <v>824</v>
+      </c>
+      <c r="M36">
+        <f>I36/A36</f>
+        <v>1.8624281549936177E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.255</v>
+      </c>
+      <c r="B37" t="s">
+        <v>821</v>
+      </c>
+      <c r="C37" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E37" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F37" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G37" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H37" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I37" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>861</v>
+      </c>
+      <c r="K37" t="s">
+        <v>824</v>
+      </c>
+      <c r="L37" t="s">
+        <v>824</v>
+      </c>
+      <c r="M37">
+        <f>I37/A37</f>
+        <v>1.336566087701302E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>791</v>
+      </c>
+      <c r="C38" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E38" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F38" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G38" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H38" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I38" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>853</v>
+      </c>
+      <c r="K38" t="s">
+        <v>824</v>
+      </c>
+      <c r="L38" t="s">
+        <v>824</v>
+      </c>
+      <c r="M38">
+        <f>I38/A38</f>
+        <v>9.7378386389666297E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>792</v>
+      </c>
+      <c r="C39" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E39" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F39" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G39" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H39" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I39" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>853</v>
+      </c>
+      <c r="K39" t="s">
+        <v>824</v>
+      </c>
+      <c r="L39" t="s">
+        <v>824</v>
+      </c>
+      <c r="M39">
+        <f>I39/A39</f>
+        <v>9.7378386389666297E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>793</v>
+      </c>
+      <c r="C40" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F40" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G40" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H40" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I40" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>853</v>
+      </c>
+      <c r="K40" t="s">
+        <v>824</v>
+      </c>
+      <c r="L40" t="s">
+        <v>824</v>
+      </c>
+      <c r="M40">
+        <f>I40/A40</f>
+        <v>9.7378386389666297E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>794</v>
+      </c>
+      <c r="C41" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E41" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F41" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G41" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H41" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I41" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J41" t="s">
+        <v>853</v>
+      </c>
+      <c r="K41" t="s">
+        <v>824</v>
+      </c>
+      <c r="L41" t="s">
+        <v>824</v>
+      </c>
+      <c r="M41">
+        <f>I41/A41</f>
+        <v>9.7378386389666297E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>784</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2.4000000839999999E-7</v>
+      </c>
+      <c r="E42" s="12">
+        <v>3.6000001260000001E-7</v>
+      </c>
+      <c r="F42" s="12">
+        <v>3.8400001343999999E-7</v>
+      </c>
+      <c r="G42" s="12">
+        <v>3.9600001386000001E-7</v>
+      </c>
+      <c r="H42" s="12">
+        <v>4.2000001469999999E-7</v>
+      </c>
+      <c r="I42" s="12">
+        <v>4.3200001512000001E-7</v>
+      </c>
+      <c r="J42" t="s">
+        <v>842</v>
+      </c>
+      <c r="K42" t="s">
+        <v>824</v>
+      </c>
+      <c r="L42" t="s">
+        <v>824</v>
+      </c>
+      <c r="M42">
+        <f>I42/A42</f>
+        <v>6.171428787428571E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>779</v>
+      </c>
+      <c r="C43" s="12">
+        <v>9.9999999699999997E-8</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1.9999999939999999E-7</v>
+      </c>
+      <c r="E43" s="12">
+        <v>2.999999991E-7</v>
+      </c>
+      <c r="F43" s="12">
+        <v>3.1999999904000002E-7</v>
+      </c>
+      <c r="G43" s="12">
+        <v>3.2999999900999998E-7</v>
+      </c>
+      <c r="H43" s="12">
+        <v>3.4999999895E-7</v>
+      </c>
+      <c r="I43" s="12">
+        <v>3.5999999892000001E-7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>841</v>
+      </c>
+      <c r="K43" t="s">
+        <v>824</v>
+      </c>
+      <c r="L43" t="s">
+        <v>824</v>
+      </c>
+      <c r="M43">
+        <f>I43/A43</f>
+        <v>5.7599999827200001E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>787</v>
+      </c>
+      <c r="C44" s="12">
+        <v>9.9999997469999996E-7</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1.9999999493999999E-6</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2.9999999241000001E-6</v>
+      </c>
+      <c r="F44" s="12">
+        <v>3.19999991904E-6</v>
+      </c>
+      <c r="G44" s="12">
+        <v>3.2999999165100001E-6</v>
+      </c>
+      <c r="H44" s="12">
+        <v>3.49999991145E-6</v>
+      </c>
+      <c r="I44" s="12">
+        <v>3.5999999089200001E-6</v>
+      </c>
+      <c r="J44" t="s">
+        <v>848</v>
+      </c>
+      <c r="K44" t="s">
+        <v>824</v>
+      </c>
+      <c r="L44" t="s">
+        <v>824</v>
+      </c>
+      <c r="M44">
+        <f>I44/A44</f>
+        <v>5.1428570127428579E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>783</v>
+      </c>
+      <c r="C45" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F45" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G45" s="12">
+        <v>3.11232863513306E-6</v>
+      </c>
+      <c r="H45" s="12">
+        <v>3.3093398585882002E-6</v>
+      </c>
+      <c r="I45" s="12">
+        <v>3.4082435236383201E-6</v>
+      </c>
+      <c r="J45" t="s">
+        <v>846</v>
+      </c>
+      <c r="K45" t="s">
+        <v>824</v>
+      </c>
+      <c r="L45" t="s">
+        <v>824</v>
+      </c>
+      <c r="M45">
+        <f>I45/A45</f>
+        <v>4.8689193194833149E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8.1670000000000006E-2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>775</v>
+      </c>
+      <c r="C46" s="12">
+        <v>9.9999999699999997E-8</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1.9999999939999999E-7</v>
+      </c>
+      <c r="E46" s="12">
+        <v>2.999999991E-7</v>
+      </c>
+      <c r="F46" s="12">
+        <v>3.1999999904000002E-7</v>
+      </c>
+      <c r="G46" s="12">
+        <v>3.2999999900999998E-7</v>
+      </c>
+      <c r="H46" s="12">
+        <v>3.4999999895E-7</v>
+      </c>
+      <c r="I46" s="12">
+        <v>3.5999999892000001E-7</v>
+      </c>
+      <c r="J46" t="s">
+        <v>837</v>
+      </c>
+      <c r="K46" t="s">
+        <v>824</v>
+      </c>
+      <c r="L46" t="s">
+        <v>824</v>
+      </c>
+      <c r="M46">
+        <f>I46/A46</f>
+        <v>4.4079833343945139E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>780</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12">
+        <v>2.4000000839999999E-7</v>
+      </c>
+      <c r="E47" s="12">
+        <v>3.6000001260000001E-7</v>
+      </c>
+      <c r="F47" s="12">
+        <v>3.8400001343999999E-7</v>
+      </c>
+      <c r="G47" s="12">
+        <v>3.9600001386000001E-7</v>
+      </c>
+      <c r="H47" s="12">
+        <v>4.2000001469999999E-7</v>
+      </c>
+      <c r="I47" s="12">
+        <v>4.3200001512000001E-7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>842</v>
+      </c>
+      <c r="K47" t="s">
+        <v>824</v>
+      </c>
+      <c r="L47" t="s">
+        <v>824</v>
+      </c>
+      <c r="M47">
+        <f>I47/A47</f>
+        <v>1.72800006048E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>785</v>
+      </c>
+      <c r="C48" s="12">
+        <v>1.2000000419999999E-7</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>843</v>
+      </c>
+      <c r="K48" t="s">
+        <v>824</v>
+      </c>
+      <c r="L48" t="s">
+        <v>824</v>
+      </c>
+      <c r="M48" s="12">
+        <f>C48/A48</f>
+        <v>1.7142857742857141E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>790</v>
+      </c>
+      <c r="C49" s="12">
+        <v>1.2000000419999999E-7</v>
+      </c>
+      <c r="D49" s="12">
+        <v>2.4000000839999999E-7</v>
+      </c>
+      <c r="E49" s="12">
+        <v>3.6000001260000001E-7</v>
+      </c>
+      <c r="F49" s="12">
+        <v>3.8400001343999999E-7</v>
+      </c>
+      <c r="G49" s="12">
+        <v>3.9600001386000001E-7</v>
+      </c>
+      <c r="H49" s="12">
+        <v>4.2000001469999999E-7</v>
+      </c>
+      <c r="I49" s="12">
+        <v>4.3200001512000001E-7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>852</v>
+      </c>
+      <c r="K49" t="s">
+        <v>824</v>
+      </c>
+      <c r="L49" t="s">
+        <v>824</v>
+      </c>
+      <c r="M49">
+        <f>I49/A49</f>
+        <v>1.6615385196923077E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>778</v>
+      </c>
+      <c r="C50" s="12">
+        <v>9.9999999699999997E-8</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1.9999999939999999E-7</v>
+      </c>
+      <c r="E50" s="12">
+        <v>2.999999991E-7</v>
+      </c>
+      <c r="F50" s="12">
+        <v>3.1999999904000002E-7</v>
+      </c>
+      <c r="G50" s="12">
+        <v>3.2999999900999998E-7</v>
+      </c>
+      <c r="H50" s="12">
+        <v>3.4999999895E-7</v>
+      </c>
+      <c r="I50" s="12">
+        <v>3.5999999892000001E-7</v>
+      </c>
+      <c r="J50" t="s">
+        <v>840</v>
+      </c>
+      <c r="K50" t="s">
+        <v>824</v>
+      </c>
+      <c r="L50" t="s">
+        <v>824</v>
+      </c>
+      <c r="M50">
+        <f>I50/A50</f>
+        <v>1.1999999964E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.25374999999999998</v>
+      </c>
+      <c r="B51" t="s">
+        <v>786</v>
+      </c>
+      <c r="C51" s="12">
+        <v>4.9999999849999999E-8</v>
+      </c>
+      <c r="D51" s="12">
+        <v>9.9999999699999997E-8</v>
+      </c>
+      <c r="E51" s="12">
+        <v>1.4999999955E-7</v>
+      </c>
+      <c r="F51" s="12">
+        <v>1.5999999952000001E-7</v>
+      </c>
+      <c r="G51" s="12">
+        <v>1.6499999950499999E-7</v>
+      </c>
+      <c r="H51" s="12">
+        <v>1.74999999475E-7</v>
+      </c>
+      <c r="I51" s="12">
+        <v>1.7999999946E-7</v>
+      </c>
+      <c r="J51" t="s">
+        <v>847</v>
+      </c>
+      <c r="K51" t="s">
+        <v>824</v>
+      </c>
+      <c r="L51" t="s">
+        <v>824</v>
+      </c>
+      <c r="M51">
+        <f>I51/A51</f>
+        <v>7.093596037832513E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.6915</v>
+      </c>
+      <c r="B52" t="s">
+        <v>765</v>
+      </c>
+      <c r="C52" s="12">
+        <v>1.2000000419999999E-7</v>
+      </c>
+      <c r="D52" s="12">
+        <v>2.4000000839999999E-7</v>
+      </c>
+      <c r="E52" s="12">
+        <v>3.6000001260000001E-7</v>
+      </c>
+      <c r="F52" s="12">
+        <v>3.8400001343999999E-7</v>
+      </c>
+      <c r="G52" s="12">
+        <v>3.9600001386000001E-7</v>
+      </c>
+      <c r="H52" s="12">
+        <v>4.2000001469999999E-7</v>
+      </c>
+      <c r="I52" s="12">
+        <v>4.3200001512000001E-7</v>
+      </c>
+      <c r="J52" t="s">
+        <v>827</v>
+      </c>
+      <c r="K52" t="s">
+        <v>824</v>
+      </c>
+      <c r="L52" t="s">
+        <v>824</v>
+      </c>
+      <c r="M52">
+        <f>I52/A52</f>
+        <v>6.247288721908894E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>768</v>
+      </c>
+      <c r="C53" s="12">
+        <v>9.9999999699999997E-8</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1.9999999939999999E-7</v>
+      </c>
+      <c r="E53" s="12">
+        <v>2.999999991E-7</v>
+      </c>
+      <c r="F53" s="12">
+        <v>3.1999999904000002E-7</v>
+      </c>
+      <c r="G53" s="12">
+        <v>3.2999999900999998E-7</v>
+      </c>
+      <c r="H53" s="12">
+        <v>3.4999999895E-7</v>
+      </c>
+      <c r="I53" s="12">
+        <v>3.5999999892000001E-7</v>
+      </c>
+      <c r="J53" t="s">
+        <v>831</v>
+      </c>
+      <c r="K53" t="s">
+        <v>824</v>
+      </c>
+      <c r="L53" t="s">
+        <v>824</v>
+      </c>
+      <c r="M53">
+        <f>I53/A53</f>
+        <v>5.1428571274285715E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>781</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1.2000000419999999E-7</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>843</v>
+      </c>
+      <c r="K54" t="s">
+        <v>824</v>
+      </c>
+      <c r="L54" t="s">
+        <v>824</v>
+      </c>
+      <c r="M54" s="12">
+        <f>C54/A54</f>
+        <v>4.8000001679999998E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="B55" t="s">
+        <v>799</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1.84829093763349E-3</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>855</v>
+      </c>
+      <c r="K55" t="s">
+        <v>824</v>
+      </c>
+      <c r="L55" t="s">
+        <v>824</v>
+      </c>
+      <c r="M55">
+        <f>I55/A55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="B56" t="s">
+        <v>800</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>6.1608305792688195E-4</v>
+      </c>
+      <c r="E56">
+        <v>1.7327868752953499E-3</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>856</v>
+      </c>
+      <c r="K56" t="s">
+        <v>824</v>
+      </c>
+      <c r="L56" t="s">
+        <v>824</v>
+      </c>
+      <c r="M56">
+        <f>I56/A56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>801</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>855</v>
+      </c>
+      <c r="K57" t="s">
+        <v>824</v>
+      </c>
+      <c r="L57" t="s">
+        <v>824</v>
+      </c>
+      <c r="M57">
+        <f>I57/A57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>802</v>
+      </c>
+      <c r="C58" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1.8564535526826399E-6</v>
+      </c>
+      <c r="E58" s="12">
+        <v>2.8187672523994601E-6</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>856</v>
+      </c>
+      <c r="K58" t="s">
+        <v>824</v>
+      </c>
+      <c r="L58" t="s">
+        <v>824</v>
+      </c>
+      <c r="M58">
+        <f>I58/A58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="B59" t="s">
+        <v>803</v>
+      </c>
+      <c r="C59">
+        <v>2.7040497617500901E-4</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>856</v>
+      </c>
+      <c r="K59" t="s">
+        <v>824</v>
+      </c>
+      <c r="L59" t="s">
+        <v>824</v>
+      </c>
+      <c r="M59">
+        <f>I59/A59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="B60" t="s">
+        <v>804</v>
+      </c>
+      <c r="C60">
+        <v>3.0967863959406101E-4</v>
+      </c>
+      <c r="D60">
+        <v>5.4344269967085998E-4</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>856</v>
+      </c>
+      <c r="K60" t="s">
+        <v>824</v>
+      </c>
+      <c r="L60" t="s">
+        <v>824</v>
+      </c>
+      <c r="M60">
+        <f>I60/A60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0.51043238764446697</v>
+      </c>
+      <c r="B61" t="s">
+        <v>805</v>
+      </c>
+      <c r="C61">
+        <v>7.7110955012304702E-4</v>
+      </c>
+      <c r="D61">
+        <v>1.46509897472248E-3</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>857</v>
+      </c>
+      <c r="K61" t="s">
+        <v>824</v>
+      </c>
+      <c r="L61" t="s">
+        <v>824</v>
+      </c>
+      <c r="M61">
+        <f>I61/A61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0.06</v>
+      </c>
+      <c r="B62" t="s">
+        <v>811</v>
+      </c>
+      <c r="C62" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>860</v>
+      </c>
+      <c r="K62" t="s">
+        <v>824</v>
+      </c>
+      <c r="L62" t="s">
+        <v>824</v>
+      </c>
+      <c r="M62">
+        <f>I62/A62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0.06</v>
+      </c>
+      <c r="B63" t="s">
+        <v>812</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1.7093078198805001E-3</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>860</v>
+      </c>
+      <c r="K63" t="s">
+        <v>824</v>
+      </c>
+      <c r="L63" t="s">
+        <v>824</v>
+      </c>
+      <c r="M63">
+        <f>I63/A63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0.06</v>
+      </c>
+      <c r="B64" t="s">
+        <v>814</v>
+      </c>
+      <c r="C64" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>860</v>
+      </c>
+      <c r="K64" t="s">
+        <v>824</v>
+      </c>
+      <c r="L64" t="s">
+        <v>824</v>
+      </c>
+      <c r="M64">
+        <f>I64/A64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0.06</v>
+      </c>
+      <c r="B65" t="s">
+        <v>815</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1.7093078198805001E-3</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>860</v>
+      </c>
+      <c r="K65" t="s">
+        <v>824</v>
+      </c>
+      <c r="L65" t="s">
+        <v>824</v>
+      </c>
+      <c r="M65">
+        <f>I65/A65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0.06</v>
+      </c>
+      <c r="B66" t="s">
+        <v>817</v>
+      </c>
+      <c r="C66" s="12">
+        <v>9.1764503401766095E-7</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12">
+        <v>3.0142164100023199E-6</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>860</v>
+      </c>
+      <c r="K66" t="s">
+        <v>824</v>
+      </c>
+      <c r="L66" t="s">
+        <v>824</v>
+      </c>
+      <c r="M66">
+        <f>I66/A66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0.06</v>
+      </c>
+      <c r="B67" t="s">
+        <v>819</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1.7093078198805001E-3</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>860</v>
+      </c>
+      <c r="K67" t="s">
+        <v>824</v>
+      </c>
+      <c r="L67" t="s">
+        <v>824</v>
+      </c>
+      <c r="M67">
+        <f>I67/A67</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M412">
+    <sortCondition descending="1" ref="M9:M412"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE794CF-9095-4B49-B7ED-0ACA2739CBC2}">
   <dimension ref="A1:E60"/>
   <sheetViews>
